--- a/xlsx/_baidu_为所应为_intext.xlsx
+++ b/xlsx/_baidu_为所应为_intext.xlsx
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -633,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
